--- a/SalesMaster/Data/ExcelTemplate.xlsx
+++ b/SalesMaster/Data/ExcelTemplate.xlsx
@@ -43,7 +43,7 @@
     <t>金额/元</t>
   </si>
   <si>
-    <t>合计</t>
+    <t>合计/元</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
